--- a/TestData/testData.xlsx
+++ b/TestData/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32684DC-888F-4962-9A55-36AF2A569AFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BE4088-5ECB-4EDF-9EAA-89BDA18A95AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,7 +757,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestData/testData.xlsx
+++ b/TestData/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BE4088-5ECB-4EDF-9EAA-89BDA18A95AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76401BD2-8310-4122-A446-8FB2CD135C0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Banking" sheetId="3" r:id="rId1"/>
@@ -754,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89240938-8150-4931-8282-A5E961900ED6}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -819,36 +819,6 @@
       <c r="C5" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
